--- a/TaggingMasterSheet.xlsx
+++ b/TaggingMasterSheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcusrichardprull/Desktop/MasterSheetsNEELY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcusrichardprull/Desktop/Auburn/MasterSheetsNEELY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BFB8C-CF17-A843-839C-0076B4C01A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F74AAC-9493-5846-96AC-625616CB5EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1440" windowWidth="27240" windowHeight="15800" xr2:uid="{87E89DA9-42B5-C34A-92C9-ABAF8E103143}"/>
+    <workbookView xWindow="10080" yWindow="0" windowWidth="18720" windowHeight="18000" xr2:uid="{87E89DA9-42B5-C34A-92C9-ABAF8E103143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB1F052-621D-0349-A973-68C3272FE588}">
   <dimension ref="A1:O1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3225,7 +3225,7 @@
         <v>2</v>
       </c>
       <c r="M51">
-        <v>149.21299999999999</v>
+        <v>149.71299999999999</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
